--- a/invoices/Company QOS.xlsx
+++ b/invoices/Company QOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E1B7D50-FBC2-48F6-B093-D59204DDBEF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82514327-490B-4DAF-B707-FF20A8BB56C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{25164F6A-96C9-4996-BA42-F81CBF30B7B0}"/>
+    <workbookView xWindow="30750" yWindow="1050" windowWidth="17070" windowHeight="15330" xr2:uid="{236B32F4-3428-4617-9E59-5842F4FF3FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Company QOS-41" sheetId="2" r:id="rId1"/>
@@ -309,7 +309,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C91F95-3C78-42EE-8A04-79290AEB3587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92558136-3D73-4E0D-9284-E23CA4D40DF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8256143C-AA53-448F-A585-926D7085F497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBB62E7-C15E-4879-9A3E-3670B501F9A3}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="8">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="9">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
@@ -4241,7 +4241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2F94F2-7020-4898-8EB3-B3FFB8AFA8B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFC7F49-1985-4BC2-A414-71264A4B31F7}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/invoices/Company QOS.xlsx
+++ b/invoices/Company QOS.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82514327-490B-4DAF-B707-FF20A8BB56C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{620DACDD-0E97-4D5B-B589-1D3798ECB553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="1050" windowWidth="17070" windowHeight="15330" xr2:uid="{236B32F4-3428-4617-9E59-5842F4FF3FA5}"/>
+    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{2C71049F-2D29-4425-977E-AA69A443325F}"/>
   </bookViews>
   <sheets>
     <sheet name="Company QOS-41" sheetId="2" r:id="rId1"/>
@@ -309,7 +309,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92558136-3D73-4E0D-9284-E23CA4D40DF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64299C04-919F-40F1-9701-C4E806D0A082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -669,9 +669,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBB62E7-C15E-4879-9A3E-3670B501F9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5862E926-E226-4396-B1D0-40818B15F8B9}">
   <sheetPr codeName="Sheet9">
-    <tabColor theme="4" tint="0.79998168889431442"/>
+    <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -4241,8 +4241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFC7F49-1985-4BC2-A414-71264A4B31F7}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085FEA3B-06EB-42EE-917E-C49729A3EB01}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/invoices/Company QOS.xlsx
+++ b/invoices/Company QOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{620DACDD-0E97-4D5B-B589-1D3798ECB553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D6AC899-8907-4F66-8EB9-30E389BD4E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{2C71049F-2D29-4425-977E-AA69A443325F}"/>
+    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{0CA06ECC-1533-44C8-AE79-059A1A4B3096}"/>
   </bookViews>
   <sheets>
     <sheet name="Company QOS-41" sheetId="2" r:id="rId1"/>
@@ -309,7 +309,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64299C04-919F-40F1-9701-C4E806D0A082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E2267E-8D43-44F2-8DD6-A9AB77552996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -669,14 +669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5862E926-E226-4396-B1D0-40818B15F8B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8DA888-433D-4E1D-9D73-769627E2DEFE}">
   <sheetPr codeName="Sheet9">
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -4241,7 +4241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085FEA3B-06EB-42EE-917E-C49729A3EB01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE47CB4-2552-4481-BBEB-A895142870A5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/invoices/Company QOS.xlsx
+++ b/invoices/Company QOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Excel_Examples\Expense_Report\invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D6AC899-8907-4F66-8EB9-30E389BD4E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70280638-C4DF-4449-BDA7-88139E2B16F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15990" xr2:uid="{0CA06ECC-1533-44C8-AE79-059A1A4B3096}"/>
+    <workbookView xWindow="30750" yWindow="885" windowWidth="21045" windowHeight="15495" xr2:uid="{FB7E1E6A-A222-4744-850C-D0A75B94E7B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Company QOS-41" sheetId="2" r:id="rId1"/>
@@ -294,22 +294,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>97367</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E2267E-8D43-44F2-8DD6-A9AB77552996}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8C65E5-81F6-43C1-804B-82D8AAA5AC9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -331,8 +331,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="742950"/>
-          <a:ext cx="2000250" cy="973667"/>
+          <a:off x="482600" y="911226"/>
+          <a:ext cx="2000250" cy="974725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,14 +669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8DA888-433D-4E1D-9D73-769627E2DEFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54C7584-D453-4E64-BD54-C757F3DB41B8}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="8">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="9">
-        <v>44194</v>
+        <v>44198</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
@@ -4236,12 +4236,13 @@
     <mergeCell ref="C45:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE47CB4-2552-4481-BBEB-A895142870A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52171F51-61E4-4722-B87A-B5DD8CFD4BDA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
